--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.7986199869217</v>
+        <v>46.16685900000001</v>
       </c>
       <c r="H2">
-        <v>35.7986199869217</v>
+        <v>138.500577</v>
       </c>
       <c r="I2">
-        <v>0.2479570136634973</v>
+        <v>0.2811430980659742</v>
       </c>
       <c r="J2">
-        <v>0.2479570136634973</v>
+        <v>0.2931275739284821</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N2">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O2">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P2">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q2">
-        <v>6656.039094186848</v>
+        <v>9105.38924920749</v>
       </c>
       <c r="R2">
-        <v>6656.039094186848</v>
+        <v>81948.5032428674</v>
       </c>
       <c r="S2">
-        <v>0.1658661275347138</v>
+        <v>0.1907212522262841</v>
       </c>
       <c r="T2">
-        <v>0.1658661275347138</v>
+        <v>0.2008032200141599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.7986199869217</v>
+        <v>46.16685900000001</v>
       </c>
       <c r="H3">
-        <v>35.7986199869217</v>
+        <v>138.500577</v>
       </c>
       <c r="I3">
-        <v>0.2479570136634973</v>
+        <v>0.2811430980659742</v>
       </c>
       <c r="J3">
-        <v>0.2479570136634973</v>
+        <v>0.2931275739284821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N3">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P3">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q3">
-        <v>26.38356864873125</v>
+        <v>41.38171023150901</v>
       </c>
       <c r="R3">
-        <v>26.38356864873125</v>
+        <v>372.4353920835811</v>
       </c>
       <c r="S3">
-        <v>0.0006574691495026375</v>
+        <v>0.0008667802527284115</v>
       </c>
       <c r="T3">
-        <v>0.0006574691495026375</v>
+        <v>0.000912600267462828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.7986199869217</v>
+        <v>46.16685900000001</v>
       </c>
       <c r="H4">
-        <v>35.7986199869217</v>
+        <v>138.500577</v>
       </c>
       <c r="I4">
-        <v>0.2479570136634973</v>
+        <v>0.2811430980659742</v>
       </c>
       <c r="J4">
-        <v>0.2479570136634973</v>
+        <v>0.2931275739284821</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N4">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O4">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P4">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q4">
-        <v>1505.656614059439</v>
+        <v>1977.112449077959</v>
       </c>
       <c r="R4">
-        <v>1505.656614059439</v>
+        <v>17794.01204170163</v>
       </c>
       <c r="S4">
-        <v>0.037520427454998</v>
+        <v>0.04141254720254198</v>
       </c>
       <c r="T4">
-        <v>0.037520427454998</v>
+        <v>0.04360171050781718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.7986199869217</v>
+        <v>46.16685900000001</v>
       </c>
       <c r="H5">
-        <v>35.7986199869217</v>
+        <v>138.500577</v>
       </c>
       <c r="I5">
-        <v>0.2479570136634973</v>
+        <v>0.2811430980659742</v>
       </c>
       <c r="J5">
-        <v>0.2479570136634973</v>
+        <v>0.2931275739284821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N5">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O5">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P5">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q5">
-        <v>1459.597145721852</v>
+        <v>1906.988098825464</v>
       </c>
       <c r="R5">
-        <v>1459.597145721852</v>
+        <v>17162.89288942918</v>
       </c>
       <c r="S5">
-        <v>0.03637264188142232</v>
+        <v>0.03994372434108395</v>
       </c>
       <c r="T5">
-        <v>0.03637264188142232</v>
+        <v>0.04205524226283499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.7986199869217</v>
+        <v>46.16685900000001</v>
       </c>
       <c r="H6">
-        <v>35.7986199869217</v>
+        <v>138.500577</v>
       </c>
       <c r="I6">
-        <v>0.2479570136634973</v>
+        <v>0.2811430980659742</v>
       </c>
       <c r="J6">
-        <v>0.2479570136634973</v>
+        <v>0.2931275739284821</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N6">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O6">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P6">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q6">
-        <v>302.586486105401</v>
+        <v>391.4257601983591</v>
       </c>
       <c r="R6">
-        <v>302.586486105401</v>
+        <v>2348.554561190154</v>
       </c>
       <c r="S6">
-        <v>0.007540347642860531</v>
+        <v>0.008198794043335801</v>
       </c>
       <c r="T6">
-        <v>0.007540347642860531</v>
+        <v>0.005754800876207241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.6553184339561</v>
+        <v>97.456632</v>
       </c>
       <c r="H7">
-        <v>89.6553184339561</v>
+        <v>292.369896</v>
       </c>
       <c r="I7">
-        <v>0.6209922345066702</v>
+        <v>0.5934832917170205</v>
       </c>
       <c r="J7">
-        <v>0.6209922345066702</v>
+        <v>0.6187821030103189</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N7">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O7">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P7">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q7">
-        <v>16669.61756392266</v>
+        <v>19221.15969112758</v>
       </c>
       <c r="R7">
-        <v>16669.61756392266</v>
+        <v>172990.4372201482</v>
       </c>
       <c r="S7">
-        <v>0.4154009424655106</v>
+        <v>0.4026059232835429</v>
       </c>
       <c r="T7">
-        <v>0.4154009424655106</v>
+        <v>0.423888606269164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>89.6553184339561</v>
+        <v>97.456632</v>
       </c>
       <c r="H8">
-        <v>89.6553184339561</v>
+        <v>292.369896</v>
       </c>
       <c r="I8">
-        <v>0.6209922345066702</v>
+        <v>0.5934832917170205</v>
       </c>
       <c r="J8">
-        <v>0.6209922345066702</v>
+        <v>0.6187821030103189</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N8">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P8">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q8">
-        <v>66.07593391841087</v>
+        <v>87.355349549832</v>
       </c>
       <c r="R8">
-        <v>66.07593391841087</v>
+        <v>786.1981459484879</v>
       </c>
       <c r="S8">
-        <v>0.001646588778581293</v>
+        <v>0.001829742935620112</v>
       </c>
       <c r="T8">
-        <v>0.001646588778581293</v>
+        <v>0.001926467391451222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>89.6553184339561</v>
+        <v>97.456632</v>
       </c>
       <c r="H9">
-        <v>89.6553184339561</v>
+        <v>292.369896</v>
       </c>
       <c r="I9">
-        <v>0.6209922345066702</v>
+        <v>0.5934832917170205</v>
       </c>
       <c r="J9">
-        <v>0.6209922345066702</v>
+        <v>0.6187821030103189</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N9">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O9">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P9">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q9">
-        <v>3770.819188980107</v>
+        <v>4173.615544700784</v>
       </c>
       <c r="R9">
-        <v>3770.819188980107</v>
+        <v>37562.53990230706</v>
       </c>
       <c r="S9">
-        <v>0.09396747339659824</v>
+        <v>0.08742044532206021</v>
       </c>
       <c r="T9">
-        <v>0.09396747339659824</v>
+        <v>0.09204169284141403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.6553184339561</v>
+        <v>97.456632</v>
       </c>
       <c r="H10">
-        <v>89.6553184339561</v>
+        <v>292.369896</v>
       </c>
       <c r="I10">
-        <v>0.6209922345066702</v>
+        <v>0.5934832917170205</v>
       </c>
       <c r="J10">
-        <v>0.6209922345066702</v>
+        <v>0.6187821030103189</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N10">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O10">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P10">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q10">
-        <v>3655.466242352172</v>
+        <v>4025.585482772672</v>
       </c>
       <c r="R10">
-        <v>3655.466242352172</v>
+        <v>36230.26934495405</v>
       </c>
       <c r="S10">
-        <v>0.09109291898275707</v>
+        <v>0.08431981140017474</v>
       </c>
       <c r="T10">
-        <v>0.09109291898275707</v>
+        <v>0.08877715221821687</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.6553184339561</v>
+        <v>97.456632</v>
       </c>
       <c r="H11">
-        <v>89.6553184339561</v>
+        <v>292.369896</v>
       </c>
       <c r="I11">
-        <v>0.6209922345066702</v>
+        <v>0.5934832917170205</v>
       </c>
       <c r="J11">
-        <v>0.6209922345066702</v>
+        <v>0.6187821030103189</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N11">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O11">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P11">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q11">
-        <v>757.808199743521</v>
+        <v>826.2861518686319</v>
       </c>
       <c r="R11">
-        <v>757.808199743521</v>
+        <v>4957.716911211792</v>
       </c>
       <c r="S11">
-        <v>0.01888431088322304</v>
+        <v>0.01730736877562255</v>
       </c>
       <c r="T11">
-        <v>0.01888431088322304</v>
+        <v>0.01214818429007281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>18.9203604061925</v>
+        <v>0.2486306666666667</v>
       </c>
       <c r="H12">
-        <v>18.9203604061925</v>
+        <v>0.745892</v>
       </c>
       <c r="I12">
-        <v>0.1310507518298328</v>
+        <v>0.001514090354314016</v>
       </c>
       <c r="J12">
-        <v>0.1310507518298328</v>
+        <v>0.001578632501817399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N12">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O12">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P12">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q12">
-        <v>3517.863498250209</v>
+        <v>49.03688594647423</v>
       </c>
       <c r="R12">
-        <v>3517.863498250209</v>
+        <v>441.331973518268</v>
       </c>
       <c r="S12">
-        <v>0.08766390752723902</v>
+        <v>0.001027125369055809</v>
       </c>
       <c r="T12">
-        <v>0.08766390752723902</v>
+        <v>0.001081421598574291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>18.9203604061925</v>
+        <v>0.2486306666666667</v>
       </c>
       <c r="H13">
-        <v>18.9203604061925</v>
+        <v>0.745892</v>
       </c>
       <c r="I13">
-        <v>0.1310507518298328</v>
+        <v>0.001514090354314016</v>
       </c>
       <c r="J13">
-        <v>0.1310507518298328</v>
+        <v>0.001578632501817399</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N13">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P13">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q13">
-        <v>13.94429807120733</v>
+        <v>0.2228603466973333</v>
       </c>
       <c r="R13">
-        <v>13.94429807120733</v>
+        <v>2.005743120276</v>
       </c>
       <c r="S13">
-        <v>0.0003474869497507809</v>
+        <v>4.668027168349633E-06</v>
       </c>
       <c r="T13">
-        <v>0.0003474869497507809</v>
+        <v>4.914789912379814E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>18.9203604061925</v>
+        <v>0.2486306666666667</v>
       </c>
       <c r="H14">
-        <v>18.9203604061925</v>
+        <v>0.745892</v>
       </c>
       <c r="I14">
-        <v>0.1310507518298328</v>
+        <v>0.001514090354314016</v>
       </c>
       <c r="J14">
-        <v>0.1310507518298328</v>
+        <v>0.001578632501817399</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N14">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O14">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P14">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q14">
-        <v>795.7727363898225</v>
+        <v>10.64769830430133</v>
       </c>
       <c r="R14">
-        <v>795.7727363898225</v>
+        <v>95.829284738712</v>
       </c>
       <c r="S14">
-        <v>0.01983037363737233</v>
+        <v>0.0002230264185686276</v>
       </c>
       <c r="T14">
-        <v>0.01983037363737233</v>
+        <v>0.0002348161123841149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>18.9203604061925</v>
+        <v>0.2486306666666667</v>
       </c>
       <c r="H15">
-        <v>18.9203604061925</v>
+        <v>0.745892</v>
       </c>
       <c r="I15">
-        <v>0.1310507518298328</v>
+        <v>0.001514090354314016</v>
       </c>
       <c r="J15">
-        <v>0.1310507518298328</v>
+        <v>0.001578632501817399</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N15">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O15">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P15">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q15">
-        <v>771.429291268666</v>
+        <v>10.27004506276622</v>
       </c>
       <c r="R15">
-        <v>771.429291268666</v>
+        <v>92.43040556489599</v>
       </c>
       <c r="S15">
-        <v>0.01922374364076872</v>
+        <v>0.0002151161033518278</v>
       </c>
       <c r="T15">
-        <v>0.01922374364076872</v>
+        <v>0.0002264876395562634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2486306666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.745892</v>
+      </c>
+      <c r="I16">
+        <v>0.001514090354314016</v>
+      </c>
+      <c r="J16">
+        <v>0.001578632501817399</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.478501</v>
+      </c>
+      <c r="N16">
+        <v>16.957002</v>
+      </c>
+      <c r="O16">
+        <v>0.02916235219621802</v>
+      </c>
+      <c r="P16">
+        <v>0.01963241055449567</v>
+      </c>
+      <c r="Q16">
+        <v>2.108015355964</v>
+      </c>
+      <c r="R16">
+        <v>12.648092135784</v>
+      </c>
+      <c r="S16">
+        <v>4.415443616940186E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.099236139034981E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1978713333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.593614</v>
+      </c>
+      <c r="I17">
+        <v>0.001204980388026363</v>
+      </c>
+      <c r="J17">
+        <v>0.001256345897172558</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>197.2278263333334</v>
+      </c>
+      <c r="N17">
+        <v>591.683479</v>
+      </c>
+      <c r="O17">
+        <v>0.6783778564662776</v>
+      </c>
+      <c r="P17">
+        <v>0.6850369527608899</v>
+      </c>
+      <c r="Q17">
+        <v>39.02573296701178</v>
+      </c>
+      <c r="R17">
+        <v>351.231596703106</v>
+      </c>
+      <c r="S17">
+        <v>0.0008174320127132276</v>
+      </c>
+      <c r="T17">
+        <v>0.0008606433650127354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1978713333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.593614</v>
+      </c>
+      <c r="I18">
+        <v>0.001204980388026363</v>
+      </c>
+      <c r="J18">
+        <v>0.001256345897172558</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.896351</v>
+      </c>
+      <c r="N18">
+        <v>2.689053</v>
+      </c>
+      <c r="O18">
+        <v>0.003083057200020643</v>
+      </c>
+      <c r="P18">
+        <v>0.003113321122377543</v>
+      </c>
+      <c r="Q18">
+        <v>0.1773621675046667</v>
+      </c>
+      <c r="R18">
+        <v>1.596259507542</v>
+      </c>
+      <c r="S18">
+        <v>3.715023461188347E-06</v>
+      </c>
+      <c r="T18">
+        <v>3.911408218679688E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1978713333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.593614</v>
+      </c>
+      <c r="I19">
+        <v>0.001204980388026363</v>
+      </c>
+      <c r="J19">
+        <v>0.001256345897172558</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.82536200000001</v>
+      </c>
+      <c r="N19">
+        <v>128.476086</v>
+      </c>
+      <c r="O19">
+        <v>0.1473006006102414</v>
+      </c>
+      <c r="P19">
+        <v>0.1487465335432934</v>
+      </c>
+      <c r="Q19">
+        <v>8.473911479422666</v>
+      </c>
+      <c r="R19">
+        <v>76.265203314804</v>
+      </c>
+      <c r="S19">
+        <v>0.000177494334879845</v>
+      </c>
+      <c r="T19">
+        <v>0.0001868770971357569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1978713333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.593614</v>
+      </c>
+      <c r="I20">
+        <v>0.001204980388026363</v>
+      </c>
+      <c r="J20">
+        <v>0.001256345897172558</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>41.30642933333333</v>
+      </c>
+      <c r="N20">
+        <v>123.919288</v>
+      </c>
+      <c r="O20">
+        <v>0.1420761335272424</v>
+      </c>
+      <c r="P20">
+        <v>0.1434707820189434</v>
+      </c>
+      <c r="Q20">
+        <v>8.173358247425778</v>
+      </c>
+      <c r="R20">
+        <v>73.56022422683199</v>
+      </c>
+      <c r="S20">
+        <v>0.0001711989545069419</v>
+      </c>
+      <c r="T20">
+        <v>0.000180248928353638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1978713333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.593614</v>
+      </c>
+      <c r="I21">
+        <v>0.001204980388026363</v>
+      </c>
+      <c r="J21">
+        <v>0.001256345897172558</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.478501</v>
+      </c>
+      <c r="N21">
+        <v>16.957002</v>
+      </c>
+      <c r="O21">
+        <v>0.02916235219621802</v>
+      </c>
+      <c r="P21">
+        <v>0.01963241055449567</v>
+      </c>
+      <c r="Q21">
+        <v>1.677652297538</v>
+      </c>
+      <c r="R21">
+        <v>10.065913785228</v>
+      </c>
+      <c r="S21">
+        <v>3.514006246516025E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.466509845174785E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.141255</v>
+      </c>
+      <c r="H22">
+        <v>40.28251</v>
+      </c>
+      <c r="I22">
+        <v>0.122654539474665</v>
+      </c>
+      <c r="J22">
+        <v>0.08525534466220901</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>197.2278263333334</v>
+      </c>
+      <c r="N22">
+        <v>591.683479</v>
+      </c>
+      <c r="O22">
+        <v>0.6783778564662776</v>
+      </c>
+      <c r="P22">
+        <v>0.6850369527608899</v>
+      </c>
+      <c r="Q22">
+        <v>3972.415943275382</v>
+      </c>
+      <c r="R22">
+        <v>23834.49565965229</v>
+      </c>
+      <c r="S22">
+        <v>0.08320612357468167</v>
+      </c>
+      <c r="T22">
+        <v>0.05840306151397906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.141255</v>
+      </c>
+      <c r="H23">
+        <v>40.28251</v>
+      </c>
+      <c r="I23">
+        <v>0.122654539474665</v>
+      </c>
+      <c r="J23">
+        <v>0.08525534466220901</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.896351</v>
+      </c>
+      <c r="N23">
+        <v>2.689053</v>
+      </c>
+      <c r="O23">
+        <v>0.003083057200020643</v>
+      </c>
+      <c r="P23">
+        <v>0.003113321122377543</v>
+      </c>
+      <c r="Q23">
+        <v>18.053634060505</v>
+      </c>
+      <c r="R23">
+        <v>108.32180436303</v>
+      </c>
+      <c r="S23">
+        <v>0.0003781509610425821</v>
+      </c>
+      <c r="T23">
+        <v>0.0002654272653324328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>18.9203604061925</v>
-      </c>
-      <c r="H16">
-        <v>18.9203604061925</v>
-      </c>
-      <c r="I16">
-        <v>0.1310507518298328</v>
-      </c>
-      <c r="J16">
-        <v>0.1310507518298328</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.452462307651659</v>
-      </c>
-      <c r="N16">
-        <v>8.452462307651659</v>
-      </c>
-      <c r="O16">
-        <v>0.03040989860078548</v>
-      </c>
-      <c r="P16">
-        <v>0.03040989860078548</v>
-      </c>
-      <c r="Q16">
-        <v>159.923633180527</v>
-      </c>
-      <c r="R16">
-        <v>159.923633180527</v>
-      </c>
-      <c r="S16">
-        <v>0.003985240074701916</v>
-      </c>
-      <c r="T16">
-        <v>0.003985240074701916</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.141255</v>
+      </c>
+      <c r="H24">
+        <v>40.28251</v>
+      </c>
+      <c r="I24">
+        <v>0.122654539474665</v>
+      </c>
+      <c r="J24">
+        <v>0.08525534466220901</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>42.82536200000001</v>
+      </c>
+      <c r="N24">
+        <v>128.476086</v>
+      </c>
+      <c r="O24">
+        <v>0.1473006006102414</v>
+      </c>
+      <c r="P24">
+        <v>0.1487465335432934</v>
+      </c>
+      <c r="Q24">
+        <v>862.5565365093101</v>
+      </c>
+      <c r="R24">
+        <v>5175.339219055861</v>
+      </c>
+      <c r="S24">
+        <v>0.01806708733219071</v>
+      </c>
+      <c r="T24">
+        <v>0.01268143698454231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.141255</v>
+      </c>
+      <c r="H25">
+        <v>40.28251</v>
+      </c>
+      <c r="I25">
+        <v>0.122654539474665</v>
+      </c>
+      <c r="J25">
+        <v>0.08525534466220901</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>41.30642933333333</v>
+      </c>
+      <c r="N25">
+        <v>123.919288</v>
+      </c>
+      <c r="O25">
+        <v>0.1420761335272424</v>
+      </c>
+      <c r="P25">
+        <v>0.1434707820189434</v>
+      </c>
+      <c r="Q25">
+        <v>831.9633263421467</v>
+      </c>
+      <c r="R25">
+        <v>4991.77995805288</v>
+      </c>
+      <c r="S25">
+        <v>0.01742628272812492</v>
+      </c>
+      <c r="T25">
+        <v>0.01223165096998168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.141255</v>
+      </c>
+      <c r="H26">
+        <v>40.28251</v>
+      </c>
+      <c r="I26">
+        <v>0.122654539474665</v>
+      </c>
+      <c r="J26">
+        <v>0.08525534466220901</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.478501</v>
+      </c>
+      <c r="N26">
+        <v>16.957002</v>
+      </c>
+      <c r="O26">
+        <v>0.02916235219621802</v>
+      </c>
+      <c r="P26">
+        <v>0.01963241055449567</v>
+      </c>
+      <c r="Q26">
+        <v>170.767650658755</v>
+      </c>
+      <c r="R26">
+        <v>683.07060263502</v>
+      </c>
+      <c r="S26">
+        <v>0.003576894878625106</v>
+      </c>
+      <c r="T26">
+        <v>0.001673767928373518</v>
       </c>
     </row>
   </sheetData>
